--- a/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4979" uniqueCount="669">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -984,63 +984,13 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Patient.identifier:NSS</t>
-  </si>
-  <si>
-    <t>NSS</t>
-  </si>
-  <si>
-    <t>National Health Plan Identifier | Le Numéro d'Inscription au Répertoire (NIR) de facturation permet de faire transiter le numéro de sécurité social de l’ayant droit ou du bénéfiaire (patient) / le numéro de sécurité sociale de l’ouvrant droit (assuré).</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.use</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
-    &lt;code value="NH"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.system</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.250.1.213.1.4.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier:INS-C</t>
   </si>
   <si>
     <t>INS-C</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
   </si>
   <si>
     <t>Computed National Health Identifier | Identifiant National de Santé Calculé à partir des éléments de la carte vitale</t>
@@ -1070,6 +1020,12 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-C.system</t>
   </si>
   <si>
@@ -1525,6 +1481,9 @@
   </si>
   <si>
     <t>Patient.name:officialName.use</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>Patient.name:officialName.text</t>
@@ -2469,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO142"/>
+  <dimension ref="A1:AO133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6865,7 +6824,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6883,7 +6842,7 @@
         <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6968,7 +6927,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>258</v>
@@ -7083,7 +7042,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>259</v>
@@ -7200,7 +7159,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>260</v>
@@ -7248,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>81</v>
@@ -7319,7 +7278,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>270</v>
@@ -7351,7 +7310,7 @@
         <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>274</v>
@@ -7367,7 +7326,7 @@
         <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>81</v>
@@ -7385,10 +7344,10 @@
         <v>151</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7438,7 +7397,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>279</v>
@@ -7486,7 +7445,7 @@
         <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>284</v>
@@ -7557,7 +7516,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>288</v>
@@ -7674,7 +7633,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>296</v>
@@ -7789,7 +7748,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>303</v>
@@ -7906,13 +7865,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
@@ -7922,7 +7881,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7937,7 +7896,7 @@
         <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>250</v>
@@ -8025,7 +7984,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>258</v>
@@ -8140,7 +8099,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>259</v>
@@ -8257,7 +8216,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>260</v>
@@ -8305,7 +8264,7 @@
         <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>81</v>
@@ -8408,7 +8367,7 @@
         <v>272</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>274</v>
@@ -8441,11 +8400,9 @@
       <c r="X51" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8506,7 +8463,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -8997,7 +8954,7 @@
         <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9362,7 +9319,7 @@
         <v>81</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>81</v>
@@ -9433,7 +9390,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>270</v>
@@ -9481,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>81</v>
@@ -9499,10 +9456,10 @@
         <v>151</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9552,7 +9509,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>279</v>
@@ -9600,7 +9557,7 @@
         <v>81</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>284</v>
@@ -10036,7 +9993,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -10054,7 +10011,7 @@
         <v>356</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10419,7 +10376,7 @@
         <v>81</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>81</v>
@@ -10490,7 +10447,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>270</v>
@@ -10538,7 +10495,7 @@
         <v>81</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>81</v>
@@ -10556,10 +10513,10 @@
         <v>151</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10609,7 +10566,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>279</v>
@@ -10728,7 +10685,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>288</v>
@@ -10845,7 +10802,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>296</v>
@@ -10960,7 +10917,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>303</v>
@@ -11077,14 +11034,12 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11093,34 +11048,38 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="R74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11164,13 +11123,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -11179,16 +11138,16 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11196,10 +11155,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>258</v>
+        <v>375</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11210,7 +11169,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11219,19 +11178,23 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>376</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11267,43 +11230,41 @@
         <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>81</v>
@@ -11311,14 +11272,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11334,21 +11297,23 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>387</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
+        <v>389</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11384,19 +11349,19 @@
         <v>81</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11408,19 +11373,19 @@
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11428,10 +11393,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11448,26 +11413,22 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11476,7 +11437,7 @@
         <v>81</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>81</v>
@@ -11491,13 +11452,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11515,7 +11476,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11527,10 +11488,10 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>81</v>
@@ -11539,7 +11500,7 @@
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11547,21 +11508,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11570,23 +11531,21 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11595,7 +11554,7 @@
         <v>81</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>81</v>
@@ -11610,46 +11569,46 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>81</v>
@@ -11658,7 +11617,7 @@
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -11666,10 +11625,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>279</v>
+        <v>395</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11686,25 +11645,25 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>282</v>
+        <v>398</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11714,10 +11673,10 @@
         <v>81</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>81</v>
@@ -11729,13 +11688,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11753,7 +11712,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11768,7 +11727,7 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>81</v>
@@ -11777,7 +11736,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>287</v>
+        <v>404</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11785,10 +11744,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>288</v>
+        <v>406</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11796,7 +11755,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>89</v>
@@ -11814,15 +11773,17 @@
         <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>407</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11834,7 +11795,7 @@
         <v>81</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>81</v>
@@ -11870,7 +11831,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11885,7 +11846,7 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>294</v>
+        <v>412</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>81</v>
@@ -11894,7 +11855,7 @@
         <v>81</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>295</v>
+        <v>413</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>81</v>
@@ -11902,14 +11863,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11928,15 +11889,17 @@
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11985,7 +11948,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12000,7 +11963,7 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>81</v>
@@ -12009,7 +11972,7 @@
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>81</v>
@@ -12017,21 +11980,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
@@ -12043,16 +12006,16 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12102,13 +12065,13 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -12117,7 +12080,7 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>81</v>
@@ -12126,7 +12089,7 @@
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -12134,10 +12097,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12148,38 +12111,32 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>380</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q83" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
         <v>81</v>
       </c>
@@ -12223,13 +12180,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -12238,16 +12195,16 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12255,10 +12212,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12281,20 +12238,16 @@
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>389</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12330,17 +12283,19 @@
         <v>81</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AC84" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12355,16 +12310,16 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12372,14 +12327,12 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12388,7 +12341,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12400,19 +12353,17 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>400</v>
+        <v>297</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12461,13 +12412,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12476,16 +12427,16 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12493,12 +12444,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12507,7 +12460,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12516,19 +12469,23 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>104</v>
+        <v>456</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12576,31 +12533,31 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12608,21 +12565,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
@@ -12634,17 +12591,15 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12681,31 +12636,31 @@
         <v>81</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>107</v>
@@ -12725,46 +12680,44 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>410</v>
+        <v>112</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12773,7 +12726,7 @@
         <v>81</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>81</v>
@@ -12788,46 +12741,46 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>415</v>
+        <v>117</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>416</v>
+        <v>107</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>81</v>
@@ -12836,7 +12789,7 @@
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12844,12 +12797,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12867,23 +12822,19 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>103</v>
+        <v>462</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12931,22 +12882,22 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>424</v>
+        <v>117</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>81</v>
@@ -12955,7 +12906,7 @@
         <v>81</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>81</v>
@@ -12963,18 +12914,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>89</v>
@@ -12983,24 +12934,26 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -13009,7 +12962,7 @@
         <v>81</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>81</v>
@@ -13024,13 +12977,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -13048,7 +13001,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13063,7 +13016,7 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>81</v>
@@ -13072,7 +13025,7 @@
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>81</v>
@@ -13080,21 +13033,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>81</v>
@@ -13109,15 +13062,17 @@
         <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13165,13 +13120,13 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
@@ -13180,7 +13135,7 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>81</v>
@@ -13189,7 +13144,7 @@
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>81</v>
@@ -13197,21 +13152,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -13226,12 +13181,14 @@
         <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13280,13 +13237,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -13295,7 +13252,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>81</v>
@@ -13304,7 +13261,7 @@
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
@@ -13312,21 +13269,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>81</v>
@@ -13341,12 +13298,14 @@
         <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13395,7 +13354,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13410,7 +13369,7 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>81</v>
@@ -13419,7 +13378,7 @@
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>81</v>
@@ -13427,10 +13386,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13441,7 +13400,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>81</v>
@@ -13453,18 +13412,16 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13512,13 +13469,13 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>81</v>
@@ -13527,7 +13484,7 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>81</v>
@@ -13536,7 +13493,7 @@
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>81</v>
@@ -13544,14 +13501,12 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13572,20 +13527,16 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>400</v>
+        <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13633,7 +13584,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13648,16 +13599,16 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>81</v>
@@ -13665,10 +13616,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13688,19 +13639,21 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>104</v>
+        <v>448</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>105</v>
+        <v>449</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13748,7 +13701,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>106</v>
+        <v>451</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13760,10 +13713,10 @@
         <v>81</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>107</v>
+        <v>452</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>81</v>
@@ -13772,7 +13725,7 @@
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>81</v>
@@ -13780,14 +13733,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13806,18 +13759,20 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>110</v>
+        <v>474</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>111</v>
+        <v>475</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>112</v>
+        <v>476</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>81</v>
       </c>
@@ -13853,19 +13808,19 @@
         <v>81</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>117</v>
+        <v>473</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13874,13 +13829,13 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>118</v>
+        <v>479</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>107</v>
+        <v>480</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>81</v>
@@ -13889,7 +13844,7 @@
         <v>81</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -13897,14 +13852,12 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
         <v>81</v>
       </c>
@@ -13922,19 +13875,23 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>81</v>
       </c>
@@ -13958,13 +13915,13 @@
         <v>81</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>81</v>
@@ -13982,31 +13939,31 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>117</v>
+        <v>482</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>81</v>
@@ -14014,10 +13971,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14025,7 +13982,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>89</v>
@@ -14034,25 +13991,25 @@
         <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>409</v>
+        <v>494</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>410</v>
+        <v>494</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>412</v>
+        <v>496</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
@@ -14062,7 +14019,7 @@
         <v>81</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>81</v>
@@ -14077,13 +14034,13 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
@@ -14101,7 +14058,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14116,27 +14073,27 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14153,25 +14110,25 @@
         <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>502</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
@@ -14220,7 +14177,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14235,16 +14192,16 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>81</v>
@@ -14252,21 +14209,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>428</v>
+        <v>509</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>81</v>
@@ -14275,21 +14232,23 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>430</v>
+        <v>236</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>431</v>
+        <v>237</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>81</v>
       </c>
@@ -14337,22 +14296,22 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>434</v>
+        <v>240</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>81</v>
@@ -14361,7 +14320,7 @@
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>435</v>
+        <v>241</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -14369,18 +14328,18 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>89</v>
@@ -14392,21 +14351,21 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
       </c>
@@ -14430,13 +14389,11 @@
         <v>81</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
@@ -14454,13 +14411,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14469,16 +14426,16 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14486,10 +14443,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14500,7 +14457,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>81</v>
@@ -14509,19 +14466,23 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>520</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>81</v>
       </c>
@@ -14569,13 +14530,13 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>81</v>
@@ -14584,16 +14545,16 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -14601,10 +14562,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14624,19 +14585,23 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>103</v>
+        <v>528</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>454</v>
+        <v>529</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14684,7 +14649,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14699,16 +14664,16 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>81</v>
@@ -14716,10 +14681,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>460</v>
+        <v>535</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14730,7 +14695,7 @@
         <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>81</v>
@@ -14739,20 +14704,22 @@
         <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>297</v>
+        <v>536</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O105" t="s" s="2">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>81</v>
@@ -14801,31 +14768,31 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>101</v>
+        <v>541</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>81</v>
@@ -14833,10 +14800,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14847,7 +14814,7 @@
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>81</v>
@@ -14859,20 +14826,16 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>486</v>
+        <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>487</v>
+        <v>104</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>81</v>
       </c>
@@ -14920,22 +14883,22 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>485</v>
+        <v>106</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>492</v>
+        <v>107</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>81</v>
@@ -14944,7 +14907,7 @@
         <v>81</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>81</v>
@@ -14952,10 +14915,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14966,7 +14929,7 @@
         <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>81</v>
@@ -14975,23 +14938,19 @@
         <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>495</v>
+        <v>194</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>81</v>
       </c>
@@ -15015,55 +14974,53 @@
         <v>81</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC107" s="2"/>
       <c r="AD107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>494</v>
+        <v>117</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>81</v>
@@ -15071,12 +15028,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15094,23 +15053,19 @@
         <v>81</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15158,44 +15113,46 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>504</v>
+        <v>117</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="D109" t="s" s="2">
         <v>81</v>
       </c>
@@ -15210,26 +15167,22 @@
         <v>81</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>81</v>
       </c>
@@ -15277,31 +15230,31 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>513</v>
+        <v>117</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15309,14 +15262,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>81</v>
+        <v>556</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15329,25 +15282,25 @@
         <v>81</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>236</v>
+        <v>557</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>237</v>
+        <v>558</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>522</v>
+        <v>245</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15396,7 +15349,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15405,13 +15358,13 @@
         <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>81</v>
@@ -15420,7 +15373,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15428,10 +15381,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15439,7 +15392,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>89</v>
@@ -15457,14 +15410,14 @@
         <v>271</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15491,33 +15444,33 @@
       <c r="X111" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y111" s="2"/>
+      <c r="Y111" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Z111" t="s" s="2">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="AC111" s="2"/>
       <c r="AD111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>81</v>
@@ -15526,16 +15479,16 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>529</v>
+        <v>107</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15543,12 +15496,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="D112" t="s" s="2">
         <v>81</v>
       </c>
@@ -15569,19 +15524,17 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>532</v>
+        <v>271</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -15606,13 +15559,11 @@
         <v>81</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y112" s="2"/>
       <c r="Z112" t="s" s="2">
-        <v>81</v>
+        <v>572</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>81</v>
@@ -15630,13 +15581,13 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>81</v>
@@ -15645,7 +15596,7 @@
         <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>107</v>
@@ -15654,7 +15605,7 @@
         <v>81</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>81</v>
@@ -15662,12 +15613,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="D113" t="s" s="2">
         <v>81</v>
       </c>
@@ -15676,7 +15629,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>81</v>
@@ -15688,19 +15641,17 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>540</v>
+        <v>271</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>81</v>
@@ -15725,13 +15676,11 @@
         <v>81</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>81</v>
@@ -15749,7 +15698,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15764,7 +15713,7 @@
         <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>107</v>
@@ -15773,7 +15722,7 @@
         <v>81</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>81</v>
@@ -15781,10 +15730,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15795,7 +15744,7 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>81</v>
@@ -15807,19 +15756,19 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>548</v>
+        <v>376</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>81</v>
@@ -15868,31 +15817,31 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>553</v>
+        <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>81</v>
@@ -15900,10 +15849,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15914,7 +15863,7 @@
         <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>81</v>
@@ -15926,16 +15875,20 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>103</v>
+        <v>474</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>104</v>
+        <v>475</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>81</v>
       </c>
@@ -15983,22 +15936,22 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>106</v>
+        <v>584</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>107</v>
+        <v>480</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>81</v>
@@ -16007,7 +15960,7 @@
         <v>81</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>81</v>
@@ -16015,10 +15968,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16029,7 +15982,7 @@
         <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>81</v>
@@ -16041,16 +15994,18 @@
         <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>110</v>
+        <v>587</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>194</v>
+        <v>588</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>195</v>
+        <v>589</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
       </c>
@@ -16086,41 +16041,43 @@
         <v>81</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC116" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>117</v>
+        <v>586</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>81</v>
@@ -16128,14 +16085,12 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
         <v>81</v>
       </c>
@@ -16156,16 +16111,18 @@
         <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>559</v>
+        <v>169</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>560</v>
+        <v>483</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
       </c>
@@ -16189,13 +16146,13 @@
         <v>81</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>81</v>
@@ -16213,31 +16170,31 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>117</v>
+        <v>593</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>81</v>
+        <v>596</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>81</v>
@@ -16245,14 +16202,12 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
         <v>81</v>
       </c>
@@ -16273,16 +16228,18 @@
         <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>564</v>
+        <v>304</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>81</v>
       </c>
@@ -16330,31 +16287,31 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>117</v>
+        <v>597</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>202</v>
+        <v>601</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>81</v>
+        <v>602</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>81</v>
+        <v>603</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>81</v>
@@ -16362,46 +16319,42 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>81</v>
       </c>
@@ -16449,25 +16402,25 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>192</v>
+        <v>607</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>81</v>
@@ -16481,10 +16434,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16492,10 +16445,10 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>81</v>
@@ -16507,17 +16460,19 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>271</v>
+        <v>536</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="O120" t="s" s="2">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>81</v>
@@ -16542,29 +16497,31 @@
         <v>81</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AC120" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16579,16 +16536,16 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>107</v>
+        <v>614</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>81</v>
@@ -16596,14 +16553,12 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
         <v>81</v>
       </c>
@@ -16624,18 +16579,16 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>574</v>
+        <v>105</v>
       </c>
       <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>575</v>
-      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>81</v>
       </c>
@@ -16659,11 +16612,13 @@
         <v>81</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y121" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z121" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>81</v>
@@ -16681,31 +16636,31 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>572</v>
+        <v>106</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>81</v>
@@ -16713,23 +16668,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>81</v>
@@ -16741,18 +16694,18 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>587</v>
+        <v>111</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>81</v>
       </c>
@@ -16776,11 +16729,13 @@
         <v>81</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y122" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z122" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>81</v>
@@ -16798,7 +16753,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>572</v>
+        <v>117</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16810,19 +16765,19 @@
         <v>81</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>81</v>
@@ -16830,45 +16785,45 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>81</v>
+        <v>556</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>592</v>
+        <v>113</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>593</v>
+        <v>245</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>81</v>
@@ -16917,22 +16872,22 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>594</v>
+        <v>192</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>81</v>
@@ -16941,7 +16896,7 @@
         <v>81</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>81</v>
@@ -16949,10 +16904,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16960,10 +16915,10 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>81</v>
@@ -16975,19 +16930,19 @@
         <v>81</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>486</v>
+        <v>271</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>487</v>
+        <v>619</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>488</v>
+        <v>620</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>490</v>
+        <v>622</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>81</v>
@@ -17012,13 +16967,13 @@
         <v>81</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>81</v>
@@ -17036,31 +16991,31 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>491</v>
+        <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>492</v>
+        <v>623</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>81</v>
+        <v>624</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>493</v>
+        <v>625</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>81</v>
@@ -17068,10 +17023,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17094,17 +17049,19 @@
         <v>81</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>599</v>
+        <v>367</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O125" t="s" s="2">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>81</v>
@@ -17153,7 +17110,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17168,16 +17125,16 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>107</v>
+        <v>632</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>81</v>
@@ -17185,21 +17142,21 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>81</v>
+        <v>635</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>81</v>
@@ -17211,18 +17168,18 @@
         <v>81</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>169</v>
+        <v>636</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>495</v>
+        <v>637</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>81</v>
       </c>
@@ -17246,13 +17203,13 @@
         <v>81</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>81</v>
@@ -17270,13 +17227,13 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>81</v>
@@ -17285,7 +17242,7 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>501</v>
+        <v>640</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>107</v>
@@ -17294,7 +17251,7 @@
         <v>81</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17302,10 +17259,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17325,20 +17282,22 @@
         <v>81</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>304</v>
+        <v>643</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O127" t="s" s="2">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>81</v>
@@ -17387,7 +17346,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17396,22 +17355,22 @@
         <v>89</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>613</v>
+        <v>81</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>107</v>
+        <v>648</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>81</v>
@@ -17419,10 +17378,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17433,28 +17392,32 @@
         <v>79</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>297</v>
+        <v>536</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>81</v>
       </c>
@@ -17502,13 +17465,13 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>81</v>
@@ -17517,7 +17480,7 @@
         <v>101</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>107</v>
@@ -17534,10 +17497,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17548,7 +17511,7 @@
         <v>79</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>81</v>
@@ -17560,20 +17523,16 @@
         <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>548</v>
+        <v>103</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>621</v>
+        <v>104</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>81</v>
       </c>
@@ -17621,25 +17580,25 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>620</v>
+        <v>106</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>625</v>
+        <v>107</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>626</v>
+        <v>81</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>81</v>
@@ -17653,21 +17612,21 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>81</v>
@@ -17679,15 +17638,17 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>81</v>
@@ -17736,19 +17697,19 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>107</v>
@@ -17768,14 +17729,14 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -17788,24 +17749,26 @@
         <v>81</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>111</v>
+        <v>557</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>112</v>
+        <v>558</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>81</v>
       </c>
@@ -17853,7 +17816,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>117</v>
+        <v>559</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17868,7 +17831,7 @@
         <v>118</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>81</v>
@@ -17885,46 +17848,44 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>110</v>
+        <v>659</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>569</v>
+        <v>660</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>570</v>
+        <v>661</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>81</v>
       </c>
@@ -17972,31 +17933,31 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>571</v>
+        <v>658</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>81</v>
+        <v>663</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>81</v>
@@ -18004,10 +17965,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18027,23 +17988,19 @@
         <v>81</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>81</v>
       </c>
@@ -18067,13 +18024,13 @@
         <v>81</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>174</v>
+        <v>666</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>175</v>
+        <v>667</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>81</v>
@@ -18091,7 +18048,7 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>89</v>
@@ -18106,1075 +18063,18 @@
         <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>636</v>
+        <v>107</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>637</v>
+        <v>81</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O141" s="2"/>
-      <c r="P141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO142" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4979" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile of the Patient resource for France | Profil de la ressource Patient pour l'usage en France
-This profile specifies the patient's identifiers for France. It uses international extensions (birtplace and nationality) and adds specific French extensions | Ce profil spécifie les identifiants de patient utilisés en France. Il utilise des extensions internationales (birthplace et nationalité) et ajoute des extensions propres à la France.</t>
+    <t>Profile of the Patient resource for France. This profile specifies the patient's identifiers for France. It uses international extensions (birtplace and nationality) and adds specific French extensions.
+Ce profil spécifie les identifiants de patient utilisés en France. Il utilise des extensions internationales (birthplace et nationalité) et ajoute des extensions propres à la France.)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -984,13 +984,63 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>Patient.identifier:NSS</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>National Health Plan Identifier | Le Numéro d'Inscription au Répertoire (NIR) de facturation permet de faire transiter le numéro de sécurité social de l’ayant droit ou du bénéfiaire (patient) / le numéro de sécurité sociale de l’ouvrant droit (assuré).</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.use</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="NH"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.system</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.250.1.213.1.4.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:NSS.assigner</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-C</t>
   </si>
   <si>
     <t>INS-C</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
   </si>
   <si>
     <t>Computed National Health Identifier | Identifiant National de Santé Calculé à partir des éléments de la carte vitale</t>
@@ -1020,12 +1070,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
     <t>Patient.identifier:INS-C.system</t>
   </si>
   <si>
@@ -1483,9 +1527,6 @@
     <t>Patient.name:officialName.use</t>
   </si>
   <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>Patient.name:officialName.text</t>
   </si>
   <si>
@@ -1571,6 +1612,9 @@
   </si>
   <si>
     <t>The date of birth for the french patient checked with the INSitelservice | Date de naissance du patient. Dans le cas d'une identité récupérée du téléservice INSi, la date de naissance est modifiée selon les règles du RNIV dans le cas de dates exceptionnelles.</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual.</t>
   </si>
   <si>
     <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
@@ -1808,28 +1852,28 @@
     <t>NK1-7, NK1-3</t>
   </si>
   <si>
-    <t>Patient.contact.relationship:RolePerson</t>
-  </si>
-  <si>
-    <t>RolePerson</t>
+    <t>Patient.contact.relationship:Role</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
   <si>
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-related-person-role</t>
-  </si>
-  <si>
-    <t>Patient.contact.relationship:RelatedPerson</t>
-  </si>
-  <si>
-    <t>RelatedPerson</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship:RelationType</t>
+  </si>
+  <si>
+    <t>RelationType</t>
   </si>
   <si>
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-related-person</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -2428,7 +2472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO133"/>
+  <dimension ref="A1:AO142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6824,7 +6868,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6842,7 +6886,7 @@
         <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6927,7 +6971,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>258</v>
@@ -7042,7 +7086,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>259</v>
@@ -7159,7 +7203,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>260</v>
@@ -7207,7 +7251,7 @@
         <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>81</v>
@@ -7278,7 +7322,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>270</v>
@@ -7310,7 +7354,7 @@
         <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>274</v>
@@ -7326,7 +7370,7 @@
         <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>81</v>
@@ -7344,10 +7388,10 @@
         <v>151</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7397,7 +7441,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>279</v>
@@ -7445,7 +7489,7 @@
         <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>284</v>
@@ -7516,7 +7560,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>288</v>
@@ -7633,7 +7677,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>296</v>
@@ -7748,7 +7792,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>303</v>
@@ -7865,13 +7909,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
@@ -7881,7 +7925,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7896,7 +7940,7 @@
         <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>250</v>
@@ -7984,7 +8028,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>258</v>
@@ -8099,7 +8143,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>259</v>
@@ -8216,7 +8260,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>260</v>
@@ -8264,7 +8308,7 @@
         <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>81</v>
@@ -8367,7 +8411,7 @@
         <v>272</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>274</v>
@@ -8400,9 +8444,11 @@
       <c r="X51" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y51" s="2"/>
+      <c r="Y51" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8463,7 +8509,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -8954,7 +9000,7 @@
         <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9319,7 +9365,7 @@
         <v>81</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>81</v>
@@ -9390,7 +9436,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>270</v>
@@ -9438,7 +9484,7 @@
         <v>81</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>81</v>
@@ -9456,10 +9502,10 @@
         <v>151</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9509,7 +9555,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>279</v>
@@ -9557,7 +9603,7 @@
         <v>81</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>284</v>
@@ -9993,7 +10039,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -10011,7 +10057,7 @@
         <v>356</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>356</v>
+        <v>250</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10376,7 +10422,7 @@
         <v>81</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>81</v>
@@ -10447,7 +10493,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>270</v>
@@ -10495,7 +10541,7 @@
         <v>81</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>81</v>
@@ -10513,10 +10559,10 @@
         <v>151</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10566,7 +10612,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>279</v>
@@ -10685,7 +10731,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>288</v>
@@ -10802,7 +10848,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>296</v>
@@ -10917,7 +10963,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>303</v>
@@ -11034,12 +11080,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11048,38 +11096,34 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q74" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11123,13 +11167,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -11138,16 +11182,16 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>374</v>
+        <v>256</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11155,10 +11199,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11169,7 +11213,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11178,23 +11222,19 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>376</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>377</v>
+        <v>104</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11230,41 +11270,43 @@
         <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>382</v>
+        <v>107</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>81</v>
@@ -11272,16 +11314,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11297,23 +11337,21 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>387</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>389</v>
+        <v>112</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11349,19 +11387,19 @@
         <v>81</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>375</v>
+        <v>117</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11373,19 +11411,19 @@
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>382</v>
+        <v>107</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11393,10 +11431,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11413,22 +11451,26 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11437,7 +11479,7 @@
         <v>81</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>81</v>
@@ -11452,13 +11494,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11476,7 +11518,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11488,10 +11530,10 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>81</v>
@@ -11500,7 +11542,7 @@
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11508,21 +11550,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>393</v>
+        <v>270</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11531,21 +11573,23 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11554,7 +11598,7 @@
         <v>81</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>81</v>
@@ -11569,46 +11613,46 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>81</v>
@@ -11617,7 +11661,7 @@
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -11625,10 +11669,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11645,25 +11689,25 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>396</v>
+        <v>280</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>397</v>
+        <v>281</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>398</v>
+        <v>282</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>399</v>
+        <v>283</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11673,10 +11717,10 @@
         <v>81</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>81</v>
@@ -11688,13 +11732,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11712,7 +11756,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11727,7 +11771,7 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>403</v>
+        <v>286</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>81</v>
@@ -11736,7 +11780,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>404</v>
+        <v>287</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11744,10 +11788,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11755,7 +11799,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>89</v>
@@ -11773,17 +11817,15 @@
         <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11795,7 +11837,7 @@
         <v>81</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>81</v>
@@ -11831,7 +11873,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>411</v>
+        <v>293</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11846,7 +11888,7 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>294</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>81</v>
@@ -11855,7 +11897,7 @@
         <v>81</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>413</v>
+        <v>295</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>81</v>
@@ -11863,14 +11905,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11889,17 +11931,15 @@
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>417</v>
+        <v>298</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11948,7 +11988,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11963,7 +12003,7 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>81</v>
@@ -11972,7 +12012,7 @@
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>81</v>
@@ -11980,21 +12020,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
@@ -12006,16 +12046,16 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>426</v>
+        <v>305</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>427</v>
+        <v>306</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12065,13 +12105,13 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>429</v>
+        <v>308</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -12080,7 +12120,7 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>430</v>
+        <v>309</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>81</v>
@@ -12089,7 +12129,7 @@
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -12097,10 +12137,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12111,32 +12151,38 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="R83" t="s" s="2">
         <v>81</v>
       </c>
@@ -12180,13 +12226,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -12195,16 +12241,16 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12212,10 +12258,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12238,16 +12284,20 @@
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>103</v>
+        <v>389</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12283,19 +12333,17 @@
         <v>81</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12310,16 +12358,16 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12327,12 +12375,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12341,7 +12391,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12353,17 +12403,19 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12412,13 +12464,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12427,16 +12479,16 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12444,14 +12496,12 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12460,7 +12510,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12469,23 +12519,19 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>387</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>456</v>
+        <v>104</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12533,31 +12579,31 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>382</v>
+        <v>107</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12565,21 +12611,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
@@ -12591,15 +12637,17 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12636,31 +12684,31 @@
         <v>81</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>107</v>
@@ -12680,44 +12728,46 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>111</v>
+        <v>409</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>112</v>
+        <v>410</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12726,7 +12776,7 @@
         <v>81</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>81</v>
@@ -12741,46 +12791,46 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>117</v>
+        <v>415</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>107</v>
+        <v>416</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>81</v>
@@ -12789,7 +12839,7 @@
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12797,14 +12847,12 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12822,19 +12870,23 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>462</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12882,22 +12934,22 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>117</v>
+        <v>424</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>81</v>
@@ -12906,7 +12958,7 @@
         <v>81</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>81</v>
@@ -12914,18 +12966,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>89</v>
@@ -12934,26 +12986,24 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12962,7 +13012,7 @@
         <v>81</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>81</v>
@@ -12977,13 +13027,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -13001,7 +13051,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13016,7 +13066,7 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>81</v>
@@ -13025,7 +13075,7 @@
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>81</v>
@@ -13033,21 +13083,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>81</v>
@@ -13062,17 +13112,15 @@
         <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13120,13 +13168,13 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
@@ -13135,7 +13183,7 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>81</v>
@@ -13144,7 +13192,7 @@
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>81</v>
@@ -13152,21 +13200,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -13181,14 +13229,12 @@
         <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13237,13 +13283,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -13252,7 +13298,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>81</v>
@@ -13261,7 +13307,7 @@
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>81</v>
@@ -13269,21 +13315,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>81</v>
@@ -13298,14 +13344,12 @@
         <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13354,7 +13398,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13369,7 +13413,7 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>81</v>
@@ -13378,7 +13422,7 @@
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>81</v>
@@ -13386,10 +13430,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13400,7 +13444,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>81</v>
@@ -13412,16 +13456,18 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13469,13 +13515,13 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>81</v>
@@ -13484,7 +13530,7 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>81</v>
@@ -13493,7 +13539,7 @@
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>81</v>
@@ -13501,12 +13547,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13527,16 +13575,20 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13584,7 +13636,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13599,16 +13651,16 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>81</v>
@@ -13616,10 +13668,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13639,21 +13691,19 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>448</v>
+        <v>104</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>449</v>
+        <v>105</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>450</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13701,7 +13751,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13713,10 +13763,10 @@
         <v>81</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>452</v>
+        <v>107</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>81</v>
@@ -13725,7 +13775,7 @@
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>81</v>
@@ -13733,14 +13783,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13759,20 +13809,18 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>474</v>
+        <v>110</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>476</v>
+        <v>112</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>81</v>
       </c>
@@ -13808,19 +13856,19 @@
         <v>81</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>473</v>
+        <v>117</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13829,13 +13877,13 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>81</v>
@@ -13844,7 +13892,7 @@
         <v>81</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>81</v>
@@ -13852,12 +13900,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="D98" t="s" s="2">
         <v>81</v>
       </c>
@@ -13875,23 +13925,19 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>169</v>
+        <v>475</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>81</v>
       </c>
@@ -13915,13 +13961,13 @@
         <v>81</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>81</v>
@@ -13939,31 +13985,31 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>81</v>
@@ -13971,10 +14017,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>492</v>
+        <v>408</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13982,7 +14028,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>89</v>
@@ -13991,25 +14037,25 @@
         <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>493</v>
+        <v>169</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
@@ -14019,7 +14065,7 @@
         <v>81</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>81</v>
@@ -14034,13 +14080,13 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
@@ -14058,7 +14104,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14073,27 +14119,27 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>497</v>
+        <v>416</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>499</v>
+        <v>417</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>501</v>
+        <v>419</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14110,25 +14156,25 @@
         <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>502</v>
+        <v>103</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>505</v>
+        <v>422</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>506</v>
+        <v>423</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
@@ -14177,7 +14223,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>501</v>
+        <v>424</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14192,16 +14238,16 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>507</v>
+        <v>425</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>508</v>
+        <v>426</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>81</v>
@@ -14209,21 +14255,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>509</v>
+        <v>428</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>81</v>
@@ -14232,23 +14278,21 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>236</v>
+        <v>430</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>237</v>
+        <v>431</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>81</v>
       </c>
@@ -14296,22 +14340,22 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>509</v>
+        <v>433</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>240</v>
+        <v>434</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>81</v>
@@ -14320,7 +14364,7 @@
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -14328,21 +14372,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14351,21 +14395,21 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>512</v>
+        <v>439</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
       </c>
@@ -14389,11 +14433,13 @@
         <v>81</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y102" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z102" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
@@ -14411,13 +14457,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>511</v>
+        <v>442</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14426,16 +14472,16 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14443,10 +14489,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14457,7 +14503,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>81</v>
@@ -14466,23 +14512,19 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>520</v>
+        <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
       </c>
@@ -14530,13 +14572,13 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>81</v>
@@ -14545,16 +14587,16 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>526</v>
+        <v>451</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -14562,10 +14604,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>527</v>
+        <v>453</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14585,23 +14627,19 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>528</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>529</v>
+        <v>454</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14649,7 +14687,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14664,16 +14702,16 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>81</v>
@@ -14681,10 +14719,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>535</v>
+        <v>460</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14695,7 +14733,7 @@
         <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>81</v>
@@ -14704,22 +14742,20 @@
         <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>536</v>
+        <v>297</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>540</v>
+        <v>463</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>81</v>
@@ -14768,31 +14804,31 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>535</v>
+        <v>464</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>541</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>542</v>
+        <v>465</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>81</v>
@@ -14800,10 +14836,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>543</v>
+        <v>485</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>543</v>
+        <v>485</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14814,7 +14850,7 @@
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>81</v>
@@ -14826,16 +14862,20 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>103</v>
+        <v>486</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>104</v>
+        <v>487</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>81</v>
       </c>
@@ -14883,22 +14923,22 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>106</v>
+        <v>485</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>107</v>
+        <v>492</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>81</v>
@@ -14907,7 +14947,7 @@
         <v>81</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>81</v>
@@ -14915,10 +14955,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14929,7 +14969,7 @@
         <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>81</v>
@@ -14938,19 +14978,23 @@
         <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>194</v>
+        <v>495</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>81</v>
       </c>
@@ -14974,53 +15018,55 @@
         <v>81</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>502</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>81</v>
@@ -15028,14 +15074,12 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15053,19 +15097,23 @@
         <v>81</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15113,46 +15161,44 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>117</v>
+        <v>504</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
         <v>81</v>
       </c>
@@ -15167,22 +15213,26 @@
         <v>81</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
       </c>
@@ -15230,31 +15280,31 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>117</v>
+        <v>514</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15262,14 +15312,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15282,25 +15332,25 @@
         <v>81</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>557</v>
+        <v>236</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>558</v>
+        <v>237</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>245</v>
+        <v>523</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15349,7 +15399,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15358,13 +15408,13 @@
         <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>81</v>
@@ -15373,7 +15423,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15381,10 +15431,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15392,7 +15442,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>89</v>
@@ -15410,14 +15460,14 @@
         <v>271</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15444,33 +15494,33 @@
       <c r="X111" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y111" t="s" s="2">
-        <v>564</v>
-      </c>
+      <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AC111" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>81</v>
@@ -15479,16 +15529,16 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>107</v>
+        <v>530</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>81</v>
@@ -15496,14 +15546,12 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
         <v>81</v>
       </c>
@@ -15524,17 +15572,19 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>271</v>
+        <v>533</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O112" t="s" s="2">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -15559,11 +15609,13 @@
         <v>81</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y112" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z112" t="s" s="2">
-        <v>572</v>
+        <v>81</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>81</v>
@@ -15581,13 +15633,13 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>81</v>
@@ -15596,7 +15648,7 @@
         <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>107</v>
@@ -15605,7 +15657,7 @@
         <v>81</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>81</v>
@@ -15613,14 +15665,12 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
         <v>81</v>
       </c>
@@ -15629,7 +15679,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>81</v>
@@ -15641,17 +15691,19 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>271</v>
+        <v>541</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O113" t="s" s="2">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>81</v>
@@ -15676,11 +15728,13 @@
         <v>81</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y113" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z113" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>81</v>
@@ -15698,7 +15752,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15713,7 +15767,7 @@
         <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>107</v>
@@ -15722,7 +15776,7 @@
         <v>81</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>81</v>
@@ -15730,10 +15784,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15744,7 +15798,7 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>81</v>
@@ -15756,19 +15810,19 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>376</v>
+        <v>549</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>81</v>
@@ -15817,31 +15871,31 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>101</v>
+        <v>554</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>81</v>
@@ -15849,10 +15903,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15863,7 +15917,7 @@
         <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>81</v>
@@ -15875,20 +15929,16 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>474</v>
+        <v>103</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>81</v>
       </c>
@@ -15936,22 +15986,22 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>584</v>
+        <v>106</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>81</v>
@@ -15960,7 +16010,7 @@
         <v>81</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>81</v>
@@ -15968,10 +16018,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15982,7 +16032,7 @@
         <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>81</v>
@@ -15994,18 +16044,16 @@
         <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>587</v>
+        <v>110</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>588</v>
+        <v>194</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>589</v>
+        <v>195</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>590</v>
-      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>81</v>
       </c>
@@ -16041,43 +16089,41 @@
         <v>81</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC116" s="2"/>
       <c r="AD116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>586</v>
+        <v>117</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>592</v>
+        <v>81</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>81</v>
@@ -16085,12 +16131,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="D117" t="s" s="2">
         <v>81</v>
       </c>
@@ -16111,18 +16159,16 @@
         <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>169</v>
+        <v>560</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>595</v>
-      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>81</v>
       </c>
@@ -16146,13 +16192,13 @@
         <v>81</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>81</v>
@@ -16170,31 +16216,31 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>593</v>
+        <v>117</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>81</v>
@@ -16202,12 +16248,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>81</v>
       </c>
@@ -16228,18 +16276,16 @@
         <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>304</v>
+        <v>565</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>600</v>
-      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>81</v>
       </c>
@@ -16287,31 +16333,31 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>597</v>
+        <v>117</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>601</v>
+        <v>202</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>81</v>
@@ -16319,42 +16365,46 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>297</v>
+        <v>110</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>81</v>
       </c>
@@ -16402,25 +16452,25 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>607</v>
+        <v>192</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>81</v>
@@ -16434,10 +16484,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16460,19 +16510,17 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>536</v>
+        <v>271</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>81</v>
@@ -16497,31 +16545,29 @@
         <v>81</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16536,16 +16582,16 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>614</v>
+        <v>107</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>81</v>
@@ -16553,12 +16599,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="D121" t="s" s="2">
         <v>81</v>
       </c>
@@ -16579,16 +16627,18 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>104</v>
+        <v>584</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>105</v>
+        <v>575</v>
       </c>
       <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>81</v>
       </c>
@@ -16612,13 +16662,11 @@
         <v>81</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>81</v>
@@ -16636,31 +16684,31 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>106</v>
+        <v>573</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL121" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>81</v>
@@ -16668,21 +16716,23 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="D122" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>81</v>
@@ -16694,18 +16744,18 @@
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>111</v>
+        <v>588</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>81</v>
       </c>
@@ -16729,13 +16779,11 @@
         <v>81</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>81</v>
+        <v>589</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>81</v>
@@ -16753,7 +16801,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>117</v>
+        <v>573</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16765,19 +16813,19 @@
         <v>81</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL122" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL122" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>81</v>
@@ -16785,45 +16833,45 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>110</v>
+        <v>389</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>113</v>
+        <v>593</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>245</v>
+        <v>594</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>81</v>
@@ -16872,22 +16920,22 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>192</v>
+        <v>595</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>81</v>
@@ -16896,7 +16944,7 @@
         <v>81</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>81</v>
+        <v>596</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>81</v>
@@ -16904,10 +16952,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16915,10 +16963,10 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>81</v>
@@ -16930,19 +16978,19 @@
         <v>81</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>619</v>
+        <v>487</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>620</v>
+        <v>488</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>622</v>
+        <v>490</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>81</v>
@@ -16967,13 +17015,13 @@
         <v>81</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>81</v>
@@ -16991,31 +17039,31 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>101</v>
+        <v>491</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>623</v>
+        <v>492</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>624</v>
+        <v>81</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>625</v>
+        <v>493</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>81</v>
@@ -17023,10 +17071,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17049,19 +17097,17 @@
         <v>81</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>81</v>
@@ -17110,7 +17156,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17125,16 +17171,16 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>632</v>
+        <v>107</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>81</v>
@@ -17142,21 +17188,21 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>635</v>
+        <v>81</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>81</v>
@@ -17168,18 +17214,18 @@
         <v>81</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>636</v>
+        <v>169</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>81</v>
       </c>
@@ -17203,13 +17249,13 @@
         <v>81</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>81</v>
@@ -17227,13 +17273,13 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>81</v>
@@ -17242,7 +17288,7 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>640</v>
+        <v>501</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>107</v>
@@ -17251,7 +17297,7 @@
         <v>81</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17259,10 +17305,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17282,22 +17328,20 @@
         <v>81</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>643</v>
+        <v>304</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>81</v>
@@ -17346,7 +17390,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17355,22 +17399,22 @@
         <v>89</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>81</v>
+        <v>614</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>648</v>
+        <v>107</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>81</v>
+        <v>616</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>81</v>
@@ -17378,10 +17422,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17392,32 +17436,28 @@
         <v>79</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>536</v>
+        <v>297</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>653</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>81</v>
       </c>
@@ -17465,13 +17505,13 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>81</v>
@@ -17480,7 +17520,7 @@
         <v>101</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>107</v>
@@ -17497,10 +17537,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17511,7 +17551,7 @@
         <v>79</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>81</v>
@@ -17523,16 +17563,20 @@
         <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>103</v>
+        <v>549</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>104</v>
+        <v>622</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>81</v>
       </c>
@@ -17580,25 +17624,25 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>106</v>
+        <v>621</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>107</v>
+        <v>626</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>81</v>
@@ -17612,21 +17656,21 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>81</v>
@@ -17638,17 +17682,15 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>81</v>
@@ -17697,19 +17739,19 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>107</v>
@@ -17729,14 +17771,14 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>556</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -17749,26 +17791,24 @@
         <v>81</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>557</v>
+        <v>111</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>558</v>
+        <v>112</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O131" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>81</v>
       </c>
@@ -17816,7 +17856,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>559</v>
+        <v>117</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17831,7 +17871,7 @@
         <v>118</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>81</v>
@@ -17848,44 +17888,46 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>659</v>
+        <v>110</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>81</v>
       </c>
@@ -17933,31 +17975,31 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>658</v>
+        <v>572</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>663</v>
+        <v>81</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>81</v>
@@ -17965,10 +18007,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17988,19 +18030,23 @@
         <v>81</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>81</v>
       </c>
@@ -18024,13 +18070,13 @@
         <v>81</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>666</v>
+        <v>174</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>667</v>
+        <v>175</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>81</v>
@@ -18048,7 +18094,7 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>89</v>
@@ -18063,18 +18109,1075 @@
         <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="O135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="P137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="AL133" t="s" s="2">
+      <c r="B138" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK138" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AM133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO133" t="s" s="2">
+      <c r="AL138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="P140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="684">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -762,7 +762,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>Patient.address</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -5196,7 +5199,7 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>119</v>
@@ -5245,7 +5248,7 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>105</v>
@@ -5311,7 +5314,7 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -10042,7 +10045,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -15350,10 +15353,10 @@
         <v>238</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15434,10 +15437,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15463,14 +15466,14 @@
         <v>272</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15499,7 +15502,7 @@
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15517,7 +15520,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15532,16 +15535,16 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15549,10 +15552,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15575,19 +15578,19 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15636,7 +15639,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15651,7 +15654,7 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>108</v>
@@ -15660,7 +15663,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15668,10 +15671,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15694,19 +15697,19 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15755,7 +15758,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15770,7 +15773,7 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>108</v>
@@ -15779,7 +15782,7 @@
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15787,10 +15790,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15813,19 +15816,19 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -15874,7 +15877,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15886,10 +15889,10 @@
         <v>82</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>108</v>
@@ -15906,10 +15909,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16021,10 +16024,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16134,13 +16137,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="B117" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="C117" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>82</v>
@@ -16162,13 +16165,13 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16251,13 +16254,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>82</v>
@@ -16279,13 +16282,13 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16368,14 +16371,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16397,10 +16400,10 @@
         <v>111</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>114</v>
@@ -16455,7 +16458,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16487,10 +16490,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16516,14 +16519,14 @@
         <v>272</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16551,16 +16554,16 @@
         <v>152</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
@@ -16570,7 +16573,7 @@
         <v>117</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16585,7 +16588,7 @@
         <v>102</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>108</v>
@@ -16594,7 +16597,7 @@
         <v>82</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16602,13 +16605,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>82</v>
@@ -16633,14 +16636,14 @@
         <v>272</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -16669,7 +16672,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16687,7 +16690,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16702,7 +16705,7 @@
         <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>108</v>
@@ -16711,7 +16714,7 @@
         <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16719,13 +16722,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>82</v>
@@ -16750,14 +16753,14 @@
         <v>272</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -16786,7 +16789,7 @@
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -16804,7 +16807,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16819,7 +16822,7 @@
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>108</v>
@@ -16828,7 +16831,7 @@
         <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -16836,10 +16839,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16865,16 +16868,16 @@
         <v>390</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -16923,7 +16926,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16938,7 +16941,7 @@
         <v>102</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>82</v>
@@ -16947,7 +16950,7 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -16955,10 +16958,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16990,7 +16993,7 @@
         <v>489</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>491</v>
@@ -17042,7 +17045,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17074,10 +17077,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17100,17 +17103,17 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17159,7 +17162,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17174,7 +17177,7 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>108</v>
@@ -17183,7 +17186,7 @@
         <v>82</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17191,10 +17194,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17223,11 +17226,11 @@
         <v>496</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17276,7 +17279,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17300,7 +17303,7 @@
         <v>82</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17308,10 +17311,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17337,14 +17340,14 @@
         <v>305</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17393,7 +17396,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17402,13 +17405,13 @@
         <v>90</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>108</v>
@@ -17417,7 +17420,7 @@
         <v>82</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17425,10 +17428,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17454,10 +17457,10 @@
         <v>298</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17508,7 +17511,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17523,7 +17526,7 @@
         <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>108</v>
@@ -17540,10 +17543,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17566,19 +17569,19 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -17627,7 +17630,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17642,10 +17645,10 @@
         <v>102</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>82</v>
@@ -17659,10 +17662,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17774,10 +17777,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17891,14 +17894,14 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -17920,10 +17923,10 @@
         <v>111</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>114</v>
@@ -17978,7 +17981,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18010,10 +18013,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18039,16 +18042,16 @@
         <v>272</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18097,7 +18100,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>90</v>
@@ -18112,16 +18115,16 @@
         <v>102</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18129,10 +18132,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18158,16 +18161,16 @@
         <v>381</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18216,7 +18219,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18231,16 +18234,16 @@
         <v>102</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18248,14 +18251,14 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18274,16 +18277,16 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18333,7 +18336,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18348,7 +18351,7 @@
         <v>102</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>108</v>
@@ -18357,7 +18360,7 @@
         <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18365,10 +18368,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18391,19 +18394,19 @@
         <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18452,7 +18455,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18467,10 +18470,10 @@
         <v>102</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>82</v>
@@ -18484,10 +18487,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18510,19 +18513,19 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18571,7 +18574,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18586,7 +18589,7 @@
         <v>102</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>108</v>
@@ -18603,10 +18606,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18718,10 +18721,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18835,14 +18838,14 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -18864,10 +18867,10 @@
         <v>111</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>114</v>
@@ -18922,7 +18925,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -18954,10 +18957,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18980,16 +18983,16 @@
         <v>91</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -19039,7 +19042,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>90</v>
@@ -19063,7 +19066,7 @@
         <v>82</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19071,10 +19074,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19100,10 +19103,10 @@
         <v>170</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -19133,10 +19136,10 @@
         <v>266</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19154,7 +19157,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>90</v>
@@ -19169,7 +19172,7 @@
         <v>102</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>108</v>
